--- a/src/test/resources/ExcelSheet/Designation.xlsx
+++ b/src/test/resources/ExcelSheet/Designation.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ReactLeaveAutomation\leave-automation\src\test\resources\ExcelSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\qa automation\leave-automation\src\test\resources\ExcelSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E241F55F-277D-4D9C-A9D6-6920DD2F9F1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE49DB0-D8E0-4E3D-9CB7-0DFE3D345C9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{93279D98-3CB0-493A-97E1-987DC5CCE898}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{93279D98-3CB0-493A-97E1-987DC5CCE898}"/>
   </bookViews>
   <sheets>
     <sheet name="AddDesignation" sheetId="1" r:id="rId1"/>
+    <sheet name="LeaveType" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Designation</t>
   </si>
@@ -42,6 +44,30 @@
   </si>
   <si>
     <t>Associate QA Engineer</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>annual</t>
+  </si>
+  <si>
+    <t>casual</t>
+  </si>
+  <si>
+    <t>223/*//,</t>
+  </si>
+  <si>
+    <t>leaveType</t>
+  </si>
+  <si>
+    <t>nkj</t>
+  </si>
+  <si>
+    <t>jbbn</t>
+  </si>
+  <si>
+    <t>ubinjo</t>
   </si>
 </sst>
 </file>
@@ -77,8 +103,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C383C78A-2B98-46D4-B53B-5DC8DBA64CE1}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -427,4 +456,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95485534-C1F3-4B0A-977B-2BDDA11543C9}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9016C572-8A94-4F90-8A3D-3330332535CF}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>